--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H2">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I2">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J2">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N2">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O2">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P2">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q2">
-        <v>981.7302263323932</v>
+        <v>1158.924968422481</v>
       </c>
       <c r="R2">
-        <v>8835.572036991538</v>
+        <v>10430.32471580232</v>
       </c>
       <c r="S2">
-        <v>0.03398341264688043</v>
+        <v>0.0324654269605927</v>
       </c>
       <c r="T2">
-        <v>0.03398341264688044</v>
+        <v>0.03246542696059269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H3">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I3">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J3">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>142.755867</v>
       </c>
       <c r="O3">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P3">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q3">
-        <v>10963.78752019998</v>
+        <v>11195.27205911631</v>
       </c>
       <c r="R3">
-        <v>98674.08768179982</v>
+        <v>100757.4485320468</v>
       </c>
       <c r="S3">
-        <v>0.3795206722559684</v>
+        <v>0.3136176173975636</v>
       </c>
       <c r="T3">
-        <v>0.3795206722559684</v>
+        <v>0.3136176173975635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H4">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I4">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J4">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N4">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O4">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P4">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q4">
-        <v>1279.916324992286</v>
+        <v>3247.1430797582</v>
       </c>
       <c r="R4">
-        <v>11519.24692493058</v>
+        <v>29224.28771782379</v>
       </c>
       <c r="S4">
-        <v>0.04430537377685342</v>
+        <v>0.09096351304776924</v>
       </c>
       <c r="T4">
-        <v>0.04430537377685343</v>
+        <v>0.09096351304776921</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H5">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I5">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J5">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N5">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O5">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P5">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q5">
-        <v>1779.855471490589</v>
+        <v>2867.431213303269</v>
       </c>
       <c r="R5">
-        <v>16018.6992434153</v>
+        <v>25806.88091972942</v>
       </c>
       <c r="S5">
-        <v>0.06161118535123259</v>
+        <v>0.08032649322133217</v>
       </c>
       <c r="T5">
-        <v>0.0616111853512326</v>
+        <v>0.08032649322133215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H6">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I6">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J6">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N6">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O6">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P6">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q6">
-        <v>1767.6969580342</v>
+        <v>2017.833917087107</v>
       </c>
       <c r="R6">
-        <v>15909.2726223078</v>
+        <v>18160.50525378397</v>
       </c>
       <c r="S6">
-        <v>0.06119030824173918</v>
+        <v>0.05652638560628271</v>
       </c>
       <c r="T6">
-        <v>0.06119030824173918</v>
+        <v>0.0565263856062827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>404.138192</v>
       </c>
       <c r="I7">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J7">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N7">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O7">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P7">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q7">
-        <v>574.0013358625457</v>
+        <v>663.5933396154754</v>
       </c>
       <c r="R7">
-        <v>5166.012022762912</v>
+        <v>5972.340056539279</v>
       </c>
       <c r="S7">
-        <v>0.01986953618546629</v>
+        <v>0.0185895046580516</v>
       </c>
       <c r="T7">
-        <v>0.0198695361854663</v>
+        <v>0.0185895046580516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>404.138192</v>
       </c>
       <c r="I8">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J8">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>142.755867</v>
       </c>
       <c r="O8">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P8">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q8">
         <v>6410.344220752495</v>
@@ -948,10 +948,10 @@
         <v>57693.09798677246</v>
       </c>
       <c r="S8">
-        <v>0.2218994251365949</v>
+        <v>0.1795755271149103</v>
       </c>
       <c r="T8">
-        <v>0.2218994251365949</v>
+        <v>0.1795755271149102</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>404.138192</v>
       </c>
       <c r="I9">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J9">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N9">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O9">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P9">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q9">
-        <v>748.3457885192051</v>
+        <v>1859.294241834393</v>
       </c>
       <c r="R9">
-        <v>6735.112096672848</v>
+        <v>16733.64817650954</v>
       </c>
       <c r="S9">
-        <v>0.02590461519027606</v>
+        <v>0.05208515050693094</v>
       </c>
       <c r="T9">
-        <v>0.02590461519027606</v>
+        <v>0.05208515050693092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>404.138192</v>
       </c>
       <c r="I10">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J10">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N10">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O10">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P10">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q10">
-        <v>1040.651892826567</v>
+        <v>1641.873552473081</v>
       </c>
       <c r="R10">
-        <v>9365.867035439103</v>
+        <v>14776.86197225773</v>
       </c>
       <c r="S10">
-        <v>0.03602303539924685</v>
+        <v>0.04599445809585139</v>
       </c>
       <c r="T10">
-        <v>0.03602303539924685</v>
+        <v>0.04599445809585138</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>404.138192</v>
       </c>
       <c r="I11">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J11">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N11">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O11">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P11">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q11">
-        <v>1033.5430122208</v>
+        <v>1155.399343627806</v>
       </c>
       <c r="R11">
-        <v>9301.887109987199</v>
+        <v>10398.59409265026</v>
       </c>
       <c r="S11">
-        <v>0.03577695555306985</v>
+        <v>0.03236666222829277</v>
       </c>
       <c r="T11">
-        <v>0.03577695555306985</v>
+        <v>0.03236666222829276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H12">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I12">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J12">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N12">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O12">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P12">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q12">
-        <v>0.5196088884235556</v>
+        <v>1.604911628941667</v>
       </c>
       <c r="R12">
-        <v>4.676479995812</v>
+        <v>14.444204660475</v>
       </c>
       <c r="S12">
-        <v>1.798669613774924E-05</v>
+        <v>4.495902900300378E-05</v>
       </c>
       <c r="T12">
-        <v>1.798669613774924E-05</v>
+        <v>4.495902900300376E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H13">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I13">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J13">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>142.755867</v>
       </c>
       <c r="O13">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P13">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q13">
-        <v>5.802899099446</v>
+        <v>15.503525082645</v>
       </c>
       <c r="R13">
-        <v>52.226091895014</v>
+        <v>139.531725743805</v>
       </c>
       <c r="S13">
-        <v>0.0002008722043543516</v>
+        <v>0.0004343064261420263</v>
       </c>
       <c r="T13">
-        <v>0.0002008722043543516</v>
+        <v>0.0004343064261420262</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H14">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I14">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J14">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N14">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O14">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P14">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q14">
-        <v>0.6774324361886666</v>
+        <v>4.496734328396668</v>
       </c>
       <c r="R14">
-        <v>6.096891925697999</v>
+        <v>40.47060895557001</v>
       </c>
       <c r="S14">
-        <v>2.344989020597434E-05</v>
+        <v>0.0001259688106456712</v>
       </c>
       <c r="T14">
-        <v>2.344989020597434E-05</v>
+        <v>0.0001259688106456711</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H15">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I15">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J15">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N15">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O15">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P15">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q15">
-        <v>0.9420395728782223</v>
+        <v>3.970898742206667</v>
       </c>
       <c r="R15">
-        <v>8.478356155903999</v>
+        <v>35.73808867986001</v>
       </c>
       <c r="S15">
-        <v>3.260948749068306E-05</v>
+        <v>0.0001112383688294339</v>
       </c>
       <c r="T15">
-        <v>3.260948749068306E-05</v>
+        <v>0.0001112383688294339</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H16">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I16">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J16">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N16">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O16">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P16">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q16">
-        <v>0.9356043308000001</v>
+        <v>2.794352703621667</v>
       </c>
       <c r="R16">
-        <v>8.4204389772</v>
+        <v>25.149174332595</v>
       </c>
       <c r="S16">
-        <v>3.238672620539209E-05</v>
+        <v>7.827931580855586E-05</v>
       </c>
       <c r="T16">
-        <v>3.238672620539209E-05</v>
+        <v>7.827931580855582E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H17">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I17">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J17">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N17">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O17">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P17">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q17">
-        <v>134.0976844442113</v>
+        <v>194.3861086676805</v>
       </c>
       <c r="R17">
-        <v>1206.879159997902</v>
+        <v>1749.474978009125</v>
       </c>
       <c r="S17">
-        <v>0.004641903471265695</v>
+        <v>0.005445415523055532</v>
       </c>
       <c r="T17">
-        <v>0.004641903471265695</v>
+        <v>0.005445415523055531</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H18">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I18">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J18">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>142.755867</v>
       </c>
       <c r="O18">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P18">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q18">
-        <v>1497.578947619541</v>
+        <v>1877.779347536075</v>
       </c>
       <c r="R18">
-        <v>13478.21052857587</v>
+        <v>16900.01412782467</v>
       </c>
       <c r="S18">
-        <v>0.05183994745518261</v>
+        <v>0.0526029811390845</v>
       </c>
       <c r="T18">
-        <v>0.05183994745518261</v>
+        <v>0.0526029811390845</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H19">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I19">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J19">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N19">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O19">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P19">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q19">
-        <v>174.827881285687</v>
+        <v>544.642254468439</v>
       </c>
       <c r="R19">
-        <v>1573.450931571183</v>
+        <v>4901.78029021595</v>
       </c>
       <c r="S19">
-        <v>0.006051813291016818</v>
+        <v>0.01525728050899301</v>
       </c>
       <c r="T19">
-        <v>0.006051813291016818</v>
+        <v>0.015257280508993</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H20">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I20">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J20">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N20">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O20">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P20">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q20">
-        <v>243.1161748619093</v>
+        <v>480.9533063947889</v>
       </c>
       <c r="R20">
-        <v>2188.045573757184</v>
+        <v>4328.5797575531</v>
       </c>
       <c r="S20">
-        <v>0.008415669671625343</v>
+        <v>0.01347313662718797</v>
       </c>
       <c r="T20">
-        <v>0.008415669671625343</v>
+        <v>0.01347313662718796</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H21">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I21">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J21">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N21">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O21">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P21">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q21">
-        <v>241.4554044618</v>
+        <v>338.4506277521472</v>
       </c>
       <c r="R21">
-        <v>2173.0986401562</v>
+        <v>3046.055649769325</v>
       </c>
       <c r="S21">
-        <v>0.008358180715591579</v>
+        <v>0.00948115230445918</v>
       </c>
       <c r="T21">
-        <v>0.008358180715591579</v>
+        <v>0.009481152304459178</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H22">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I22">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J22">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N22">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O22">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P22">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q22">
-        <v>0.5083742398391111</v>
+        <v>0.8775106357116667</v>
       </c>
       <c r="R22">
-        <v>4.575368158552</v>
+        <v>7.897595721405</v>
       </c>
       <c r="S22">
-        <v>1.75977993832771E-05</v>
+        <v>2.458205511752763E-05</v>
       </c>
       <c r="T22">
-        <v>1.75977993832771E-05</v>
+        <v>2.458205511752762E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H23">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I23">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J23">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>142.755867</v>
       </c>
       <c r="O23">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P23">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q23">
-        <v>5.677432554116</v>
+        <v>8.476795797171</v>
       </c>
       <c r="R23">
-        <v>51.096892987044</v>
+        <v>76.291162174539</v>
       </c>
       <c r="S23">
-        <v>0.0001965290749803515</v>
+        <v>0.0002374638585857013</v>
       </c>
       <c r="T23">
-        <v>0.0001965290749803515</v>
+        <v>0.0002374638585857013</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H24">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I24">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J24">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N24">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O24">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P24">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q24">
-        <v>0.6627854285453333</v>
+        <v>2.458660108120668</v>
       </c>
       <c r="R24">
-        <v>5.965068856908</v>
+        <v>22.12794097308601</v>
       </c>
       <c r="S24">
-        <v>2.294287178947416E-05</v>
+        <v>6.887542536059674E-05</v>
       </c>
       <c r="T24">
-        <v>2.294287178947417E-05</v>
+        <v>6.887542536059671E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H25">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I25">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J25">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N25">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O25">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P25">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q25">
-        <v>0.9216714002204445</v>
+        <v>2.171151243958667</v>
       </c>
       <c r="R25">
-        <v>8.295042601984001</v>
+        <v>19.540361195628</v>
       </c>
       <c r="S25">
-        <v>3.190442616352187E-05</v>
+        <v>6.082132497937888E-05</v>
       </c>
       <c r="T25">
-        <v>3.190442616352188E-05</v>
+        <v>6.082132497937885E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H26">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I26">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J26">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N26">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O26">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P26">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q26">
-        <v>0.9153752968000001</v>
+        <v>1.527856221575667</v>
       </c>
       <c r="R26">
-        <v>8.2383776712</v>
+        <v>13.750705994181</v>
       </c>
       <c r="S26">
-        <v>3.168648127920906E-05</v>
+        <v>4.28004451706399E-05</v>
       </c>
       <c r="T26">
-        <v>3.168648127920907E-05</v>
+        <v>4.280044517063988E-05</v>
       </c>
     </row>
   </sheetData>
